--- a/photos_to_save.xlsx
+++ b/photos_to_save.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,45 +461,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>post_id</t>
+          <t>sizes</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>sizes</t>
+          <t>text</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>square_crop</t>
+          <t>has_tags</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>likes</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>has_tags</t>
+          <t>comments</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>likes</t>
+          <t>reposts</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>reposts</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>tags</t>
         </is>
@@ -507,53 +497,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-6</v>
+        <v>170109067</v>
       </c>
       <c r="B2" t="n">
-        <v>1371889872</v>
+        <v>1361123178</v>
       </c>
       <c r="C2" t="n">
-        <v>305876167</v>
+        <v>298279696</v>
       </c>
       <c r="D2" t="n">
         <v>1716063</v>
       </c>
       <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[{'height': 72, 'type': 'm', 'width': 130, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=130x72&amp;quality=96&amp;sign=c84949ae63696355d76dc23e848bb385&amp;c_uniq_tag=QOr9KARW5D7r2CH9-VN5O8xbBVdRWSWM5AzVTEUzgZs&amp;type=album'}, {'height': 87, 'type': 'o', 'width': 130, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=130x87&amp;quality=96&amp;crop=35,0,354,237&amp;sign=1c6bc543c4e9076de6f3576c29d351df&amp;c_uniq_tag=DA8jsBL1GYy8EVRUQP0ACZGdLIZCM3gzplwJiAB2YHE&amp;type=album'}, {'height': 133, 'type': 'p', 'width': 200, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=200x133&amp;quality=96&amp;crop=34,0,356,237&amp;sign=ce0833673c0c7e3745cc8c4c96fbbb05&amp;c_uniq_tag=4qYBNECQO1MPntpZWMXRTf2TfgLTvnREM5YYxFBILUs&amp;type=album'}, {'height': 213, 'type': 'q', 'width': 320, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=320x213&amp;quality=96&amp;crop=34,0,356,237&amp;sign=5a0eff4ed8b654e29dbf7a24ab04d99c&amp;c_uniq_tag=IxAM0qCI7miir9Swjq8wPNWmGTEMGXD_TEp13_q5oJc&amp;type=album'}, {'height': 237, 'type': 'r', 'width': 425, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=425x237&amp;quality=96&amp;sign=8b341f05c8a5cf6ccea8d1b6fad298c3&amp;c_uniq_tag=XGZXBEF_lHOI-jN1YPRuOExzRi1D9BRs9pRar7oVc8U&amp;type=album'}, {'height': 42, 'type': 's', 'width': 75, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=75x42&amp;quality=96&amp;sign=2f56e2b27cde273a07dc0b89d44d328e&amp;c_uniq_tag=2eLosGiatbQapxr5PlkwdTscCR8SKlHR7JAowK8NzrQ&amp;type=album'}, {'height': 237, 'type': 'x', 'width': 425, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=425x237&amp;quality=96&amp;sign=8b341f05c8a5cf6ccea8d1b6fad298c3&amp;c_uniq_tag=XGZXBEF_lHOI-jN1YPRuOExzRi1D9BRs9pRar7oVc8U&amp;type=album'}]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
-        <v>1631</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[{'height': 91, 'type': 'm', 'width': 130, 'url': 'https://sun6-22.userapi.com/impf/2B-LQgnpAmlyFEWtpFPZCk0xBSyyIOvzOvvAWg/lTEk1uxaiSY.jpg?size=130x91&amp;quality=96&amp;sign=ee09ef8cea906c308d7da63a5c414871&amp;c_uniq_tag=of4uj-9iX6viMrshB6lo4hX8Ul6Fc0du8FbfNgSZ-Sc&amp;type=album'}, {'height': 91, 'type': 'o', 'width': 130, 'url': 'https://sun6-22.userapi.com/impf/2B-LQgnpAmlyFEWtpFPZCk0xBSyyIOvzOvvAWg/lTEk1uxaiSY.jpg?size=130x91&amp;quality=96&amp;sign=ee09ef8cea906c308d7da63a5c414871&amp;c_uniq_tag=of4uj-9iX6viMrshB6lo4hX8Ul6Fc0du8FbfNgSZ-Sc&amp;type=album'}, {'height': 140, 'type': 'p', 'width': 200, 'url': 'https://sun6-22.userapi.com/impf/2B-LQgnpAmlyFEWtpFPZCk0xBSyyIOvzOvvAWg/lTEk1uxaiSY.jpg?size=200x140&amp;quality=96&amp;sign=8b34ce5a2f2b1db5a48bc0a4e54c3651&amp;c_uniq_tag=dT9V8JZWHppxRsg9QdOPJucaYpqvDiIn3YmIohpuf50&amp;type=album'}, {'height': 224, 'type': 'q', 'width': 320, 'url': 'https://sun6-22.userapi.com/impf/2B-LQgnpAmlyFEWtpFPZCk0xBSyyIOvzOvvAWg/lTEk1uxaiSY.jpg?size=320x224&amp;quality=96&amp;sign=279e82d0897ab07e1d629961ec324600&amp;c_uniq_tag=Y3LRrmX-ZWijO7jsBNeL8dPo7Chz1ai9e__DlfBkWLc&amp;type=album'}, {'height': 300, 'type': 'r', 'width': 429, 'url': 'https://sun6-22.userapi.com/impf/2B-LQgnpAmlyFEWtpFPZCk0xBSyyIOvzOvvAWg/lTEk1uxaiSY.jpg?size=429x300&amp;quality=96&amp;sign=1ee353ad5aef84bad800771ee4ff8f60&amp;c_uniq_tag=ZZrD9cEkoi5HM1qMLdLBoiTPUWvZlJrAF0VkHBbyCYk&amp;type=album'}, {'height': 52, 'type': 's', 'width': 75, 'url': 'https://sun6-22.userapi.com/impf/2B-LQgnpAmlyFEWtpFPZCk0xBSyyIOvzOvvAWg/lTEk1uxaiSY.jpg?size=75x52&amp;quality=96&amp;sign=4eac0ab24d2ee55c68c5760c6f869d7b&amp;c_uniq_tag=uxsVUhSdhCmEV57ATWL75VC-r51P-wncacGqDpnXmm4&amp;type=album'}, {'height': 300, 'type': 'x', 'width': 429, 'url': 'https://sun6-22.userapi.com/impf/2B-LQgnpAmlyFEWtpFPZCk0xBSyyIOvzOvvAWg/lTEk1uxaiSY.jpg?size=429x300&amp;quality=96&amp;sign=1ee353ad5aef84bad800771ee4ff8f60&amp;c_uniq_tag=ZZrD9cEkoi5HM1qMLdLBoiTPUWvZlJrAF0VkHBbyCYk&amp;type=album'}]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>94,30,240</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="b">
-        <v>0</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>{'count': 6, 'user_likes': 0}</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>{'count': 1}</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{'count': 119, 'user_likes': 0}</t>
+          <t>{'count': 0}</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
-        <is>
-          <t>{'count': 0}</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>{'count': 0}</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
         <is>
           <t>{'count': 0}</t>
         </is>
@@ -561,53 +543,45 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-6</v>
+        <v>170109067</v>
       </c>
       <c r="B3" t="n">
-        <v>1411732262</v>
+        <v>1361123188</v>
       </c>
       <c r="C3" t="n">
-        <v>340611791</v>
+        <v>298279713</v>
       </c>
       <c r="D3" t="n">
         <v>1716063</v>
       </c>
       <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[{'height': 72, 'type': 'm', 'width': 130, 'url': 'https://sun6-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=130x72&amp;quality=96&amp;sign=978a0fd1e7b40fc893c2c496416368a2&amp;c_uniq_tag=zOpNgDtGLEtoplFgksOuP2_GBP171ue0YAzshaJdo5E&amp;type=album'}, {'height': 87, 'type': 'o', 'width': 130, 'url': 'https://sun6-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=130x87&amp;quality=96&amp;crop=35,0,354,237&amp;sign=7ea20a06e37b1dd4619006224142c7d3&amp;c_uniq_tag=7f0ZakCj1tlmnTMtawvjOEk4hRf19TA4VbMZPtl8OLA&amp;type=album'}, {'height': 133, 'type': 'p', 'width': 200, 'url': 'https://sun6-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=200x133&amp;quality=96&amp;crop=34,0,356,237&amp;sign=8a7a5283c6ddbc1229b327f7386bf7f2&amp;c_uniq_tag=wIzPNRQZHaWub2FWLOKI1KdCXOw9eq2LbYLC5A9Vvl8&amp;type=album'}, {'height': 213, 'type': 'q', 'width': 320, 'url': 'https://sun6-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=320x213&amp;quality=96&amp;crop=34,0,356,237&amp;sign=27d3671661ab5f1b42f7234c593e6efe&amp;c_uniq_tag=2-OfGh3UgI4kmuNiSxd-MnWOmGmdIb11_QaOv5Ld8O8&amp;type=album'}, {'height': 237, 'type': 'r', 'width': 425, 'url': 'https://sun6-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=425x237&amp;quality=96&amp;sign=c7ea5f719f2ad1bbebd03b4c09cb3b74&amp;c_uniq_tag=1q-FXm675FQHC8bgGEEhgonN_0UMsuMookqhsZZou4U&amp;type=album'}, {'height': 42, 'type': 's', 'width': 75, 'url': 'https://sun6-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=75x42&amp;quality=96&amp;sign=2c672725e67005bf85306faa2932913e&amp;c_uniq_tag=wIbrH2W5Wb-P3AE13unjtsbDYm_cdPqrRAY_o--cNkI&amp;type=album'}, {'height': 237, 'type': 'x', 'width': 425, 'url': 'https://sun6-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=425x237&amp;quality=96&amp;sign=c7ea5f719f2ad1bbebd03b4c09cb3b74&amp;c_uniq_tag=1q-FXm675FQHC8bgGEEhgonN_0UMsuMookqhsZZou4U&amp;type=album'}]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
-        <v>2442</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[{'height': 92, 'type': 'm', 'width': 130, 'url': 'https://sun9-63.userapi.com/impf/c622820/v622820008/3c36/Ux8JEnAZJcc.jpg?size=130x92&amp;quality=96&amp;sign=172e5590f7eef61934e19308a53801c6&amp;c_uniq_tag=O01168Eu2Rja_BjOgCwMGH0yKd44R2H1u4YouhFnQNE&amp;type=album'}, {'height': 92, 'type': 'o', 'width': 130, 'url': 'https://sun9-63.userapi.com/impf/c622820/v622820008/3c36/Ux8JEnAZJcc.jpg?size=130x92&amp;quality=96&amp;sign=172e5590f7eef61934e19308a53801c6&amp;c_uniq_tag=O01168Eu2Rja_BjOgCwMGH0yKd44R2H1u4YouhFnQNE&amp;type=album'}, {'height': 142, 'type': 'p', 'width': 200, 'url': 'https://sun9-63.userapi.com/impf/c622820/v622820008/3c36/Ux8JEnAZJcc.jpg?size=200x142&amp;quality=96&amp;sign=795a6c49f3d135155f389c3a2d8bc21d&amp;c_uniq_tag=hwkmbArm7VxRw-6aAatMuBImjdrr8rb-JaS3IB0ChCg&amp;type=album'}, {'height': 227, 'type': 'q', 'width': 320, 'url': 'https://sun9-63.userapi.com/impf/c622820/v622820008/3c36/Ux8JEnAZJcc.jpg?size=320x227&amp;quality=96&amp;sign=4dc2cb5abdb81126b73a3f2b4a203429&amp;c_uniq_tag=diDBhaNnAtz6mIL4W_k-p8uxp381aBUhhDnHv8YN0e0&amp;type=album'}, {'height': 362, 'type': 'r', 'width': 510, 'url': 'https://sun9-63.userapi.com/impf/c622820/v622820008/3c36/Ux8JEnAZJcc.jpg?size=510x362&amp;quality=96&amp;sign=b4b073a575b4a2db154560bf7641906c&amp;c_uniq_tag=K2ntOxOysgmQ9en30TJezMRjevjHoAGgmunOPaS2YO0&amp;type=album'}, {'height': 53, 'type': 's', 'width': 75, 'url': 'https://sun9-63.userapi.com/impf/c622820/v622820008/3c36/Ux8JEnAZJcc.jpg?size=75x53&amp;quality=96&amp;sign=8ad3817347b5e2eae9e2a6718d6baccc&amp;c_uniq_tag=5XX47Erha3gapbnEagdKqEK6M8wOIAn-_HnQnOx5LK0&amp;type=album'}, {'height': 428, 'type': 'x', 'width': 604, 'url': 'https://sun9-63.userapi.com/impf/c622820/v622820008/3c36/Ux8JEnAZJcc.jpg?size=604x428&amp;quality=96&amp;sign=d8e3e62fdf102281cb352054e04c5a33&amp;c_uniq_tag=jLJGyy1EmdgrcrnlzlCfly097iPe53N5UltTsB2kZbo&amp;type=album'}, {'height': 454, 'type': 'y', 'width': 640, 'url': 'https://sun9-63.userapi.com/impf/c622820/v622820008/3c36/Ux8JEnAZJcc.jpg?size=640x454&amp;quality=96&amp;sign=5a5c42e201cf373a2956aa6f2e1ecc0c&amp;c_uniq_tag=WZ6tshd_mZ8Q_D8bwXGG3ilGmqI4pqjhK468Ilbqo98&amp;type=album'}]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>155,62,330</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="b">
-        <v>0</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>{'count': 5, 'user_likes': 0}</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>{'count': 0}</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>{'count': 13, 'user_likes': 0}</t>
+          <t>{'count': 0}</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
-        <is>
-          <t>{'count': 0}</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>{'count': 0}</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
         <is>
           <t>{'count': 0}</t>
         </is>
@@ -615,49 +589,137 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-6</v>
+        <v>170109067</v>
       </c>
       <c r="B4" t="n">
-        <v>1336940273</v>
+        <v>1361123211</v>
       </c>
       <c r="C4" t="n">
-        <v>283416837</v>
+        <v>298279756</v>
       </c>
       <c r="D4" t="n">
         <v>1716063</v>
       </c>
       <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[{'height': 107, 'type': 'm', 'width': 130, 'url': 'https://sun6-23.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=130x107&amp;quality=96&amp;sign=6d40a77f971cf2c3724afdec8f12af19&amp;c_uniq_tag=7OEGfOssYHrQE4JK152VQHMMGE-1Xc8BkcD_mGeLIuA&amp;type=album'}, {'height': 107, 'type': 'o', 'width': 130, 'url': 'https://sun6-23.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=130x107&amp;quality=96&amp;sign=6d40a77f971cf2c3724afdec8f12af19&amp;c_uniq_tag=7OEGfOssYHrQE4JK152VQHMMGE-1Xc8BkcD_mGeLIuA&amp;type=album'}, {'height': 164, 'type': 'p', 'width': 200, 'url': 'https://sun6-23.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=200x164&amp;quality=96&amp;sign=ab446b6f06c4d2d46f4c1b7cd8ab5261&amp;c_uniq_tag=g7hNVGcS0liJNF5ht2vkmz8Oocux4CEF5rHiydD5EVA&amp;type=album'}, {'height': 263, 'type': 'q', 'width': 320, 'url': 'https://sun6-23.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=320x263&amp;quality=96&amp;sign=ee749c85514e7c9825a88a633b210b0d&amp;c_uniq_tag=VgJlmaNJ6129arzBRJhM2r4JJagg_j4fn5UtlXHyL5s&amp;type=album'}, {'height': 419, 'type': 'r', 'width': 510, 'url': 'https://sun6-23.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=510x419&amp;quality=96&amp;sign=34fc1dbd0260b7169a122b7fb2b79cf8&amp;c_uniq_tag=2njAdomZz4FKRur0BHgZmegZcDsTvFWMTa43IybIIwc&amp;type=album'}, {'height': 62, 'type': 's', 'width': 75, 'url': 'https://sun6-23.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=75x62&amp;quality=96&amp;sign=761c91142d1a23da8eb37b152cebc1dc&amp;c_uniq_tag=0oNbBbDW8gNroh8Dqg0h0fxd3dOfDlF6HJbvZQiJ8AI&amp;type=album'}, {'height': 458, 'type': 'x', 'width': 558, 'url': 'https://sun6-23.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=558x458&amp;quality=96&amp;sign=adabb4dd464586c3fed2957414b9b241&amp;c_uniq_tag=mnU8nhpZ7Mm1aqPQEcv3IsBq6Ftn0t8wsO_7wW1WIoM&amp;type=album'}]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
-        <v>49</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[{'height': 130, 'type': 'm', 'width': 97, 'url': 'https://sun9-30.userapi.com/impf/c305708/v305708063/13c6/SF-47Q8oxvQ.jpg?size=97x130&amp;quality=96&amp;sign=6ee8d96497617805481ea8b6c8224e73&amp;c_uniq_tag=8VOFMESInhCI9AQcVDzExd2ms0qhZa67Own95rG5YM8&amp;type=album'}, {'height': 150, 'type': 'o', 'width': 112, 'url': 'https://sun9-30.userapi.com/impf/c305708/v305708063/13c6/SF-47Q8oxvQ.jpg?size=112x150&amp;quality=96&amp;sign=c6c776b8f9ada58bfbbc27e7f7816e47&amp;c_uniq_tag=6ZFk7LjrhfgYI0sZfBDyqGFvO-SPPIg_m2elD9LcYPc&amp;type=album'}, {'height': 150, 'type': 'p', 'width': 112, 'url': 'https://sun9-30.userapi.com/impf/c305708/v305708063/13c6/SF-47Q8oxvQ.jpg?size=112x150&amp;quality=96&amp;sign=c6c776b8f9ada58bfbbc27e7f7816e47&amp;c_uniq_tag=6ZFk7LjrhfgYI0sZfBDyqGFvO-SPPIg_m2elD9LcYPc&amp;type=album'}, {'height': 150, 'type': 'q', 'width': 112, 'url': 'https://sun9-30.userapi.com/impf/c305708/v305708063/13c6/SF-47Q8oxvQ.jpg?size=112x150&amp;quality=96&amp;sign=c6c776b8f9ada58bfbbc27e7f7816e47&amp;c_uniq_tag=6ZFk7LjrhfgYI0sZfBDyqGFvO-SPPIg_m2elD9LcYPc&amp;type=album'}, {'height': 150, 'type': 'r', 'width': 112, 'url': 'https://sun9-30.userapi.com/impf/c305708/v305708063/13c6/SF-47Q8oxvQ.jpg?size=112x150&amp;quality=96&amp;sign=c6c776b8f9ada58bfbbc27e7f7816e47&amp;c_uniq_tag=6ZFk7LjrhfgYI0sZfBDyqGFvO-SPPIg_m2elD9LcYPc&amp;type=album'}, {'height': 75, 'type': 's', 'width': 56, 'url': 'https://sun9-30.userapi.com/impf/c305708/v305708063/13c6/SF-47Q8oxvQ.jpg?size=56x75&amp;quality=96&amp;sign=f7c55550dff8ad2c364b628771f8e40d&amp;c_uniq_tag=CApmwd_PcTvDwWi5EyswAmX2BtBdvDYG3WicoUetCoU&amp;type=album'}, {'height': 150, 'type': 'x', 'width': 112, 'url': 'https://sun9-30.userapi.com/impf/c305708/v305708063/13c6/SF-47Q8oxvQ.jpg?size=112x150&amp;quality=96&amp;sign=c6c776b8f9ada58bfbbc27e7f7816e47&amp;c_uniq_tag=6ZFk7LjrhfgYI0sZfBDyqGFvO-SPPIg_m2elD9LcYPc&amp;type=album'}]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="b">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>{'count': 1, 'user_likes': 0}</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>{'count': 0}</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>{'count': 0}</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>{'count': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>170109067</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1690545674</v>
+      </c>
+      <c r="C5" t="n">
+        <v>457239382</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1716063</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[{'height': 75, 'type': 's', 'width': 72, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=72x75&amp;quality=95&amp;sign=ceadc6d93b394bd647d90a5417220fb7&amp;c_uniq_tag=-kCQ6BPt_tR8t7hXkMCCiHCjlay1oUD5l2o7cj5nCOA&amp;type=album'}, {'height': 130, 'type': 'm', 'width': 125, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=125x130&amp;quality=95&amp;sign=0c6e99634a50e17d9d397d6bd108a43e&amp;c_uniq_tag=Tw6-BjHxmToJ6E7w19MorkPonW0s5TgkgMidC4Hu5ZI&amp;type=album'}, {'height': 570, 'type': 'x', 'width': 548, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=548x570&amp;quality=95&amp;sign=9beb4b83c4bf56cd15e694da8dbe68a3&amp;c_uniq_tag=PeNLgrvRr3ik5WWJp7TdbPEkbBL9tsok_vbZ2PgbmgI&amp;type=album'}, {'height': 135, 'type': 'o', 'width': 130, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=130x135&amp;quality=95&amp;sign=bed5f01625b9acf1e809b8bf504a1568&amp;c_uniq_tag=NMPRKa_OZ1mMNu0PxfHhZeWvtndY_2v0ZRG1MoKJJ1s&amp;type=album'}, {'height': 208, 'type': 'p', 'width': 200, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=200x208&amp;quality=95&amp;sign=3ed6eff7be0a99403e1d881187404df3&amp;c_uniq_tag=TWWbNyJJveKoteJPj6juhvXmu94FarlhZxujw_bBGag&amp;type=album'}, {'height': 333, 'type': 'q', 'width': 320, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=320x333&amp;quality=95&amp;sign=44428fcbcb93aeba97a3845c001f4691&amp;c_uniq_tag=87pTBzsOmbPERGmw9mAw1Exg__tagnoctYl-dvRKjY4&amp;type=album'}, {'height': 530, 'type': 'r', 'width': 510, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=510x530&amp;quality=95&amp;sign=595ac79f507ef1450befd78e51e326e4&amp;c_uniq_tag=cB_FgSo5fgznzpL8J9EWIWReBR0jvr_iIrvVF86hXdA&amp;type=album'}]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>{'count': 10, 'user_likes': 0}</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>{'count': 0}</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>{'count': 0}</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>{'count': 0, 'user_likes': 0}</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>{'count': 0}</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>{'count': 0}</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>{'count': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>170109067</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1690545673</v>
+      </c>
+      <c r="C6" t="n">
+        <v>457239377</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1716063</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[{'height': 75, 'type': 's', 'width': 65, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=65x75&amp;quality=95&amp;sign=8c1c7cbc9279728e86dac499b84d7178&amp;c_uniq_tag=himzbnkelzKUGdwFpGaphg61TVbef6UvKad41ohRF6w&amp;type=album'}, {'height': 130, 'type': 'm', 'width': 112, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=112x130&amp;quality=95&amp;sign=8bccc2efc9599fe91f37e2a93cac999b&amp;c_uniq_tag=WLmHViOkEn8klhI1k4jloOi7PJBVPeSba-8MN9HZKb0&amp;type=album'}, {'height': 604, 'type': 'x', 'width': 521, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=521x604&amp;quality=95&amp;sign=ba6910ef5ada5cba81f8bae534581e00&amp;c_uniq_tag=3hHlAyyUO-S7DpGBWcWVh9QsnZBD-MHxyWVtdnroifs&amp;type=album'}, {'height': 636, 'type': 'y', 'width': 549, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=549x636&amp;quality=95&amp;sign=c57b4756ac220f634b39f8c55718ad79&amp;c_uniq_tag=FaL4LW3Mg-HSlQi2c9Ne2DwMLGUDTbFGANrry8JcGyA&amp;type=album'}, {'height': 151, 'type': 'o', 'width': 130, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=130x151&amp;quality=95&amp;sign=528d7555b4295e6e9136e205a05e0fd3&amp;c_uniq_tag=NXd1aXNsh_f8S4L-18gSKEKJJVdkpTAC3957pQA-w5A&amp;type=album'}, {'height': 232, 'type': 'p', 'width': 200, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=200x232&amp;quality=95&amp;sign=0f2594ecc1406025e42b3115afc8d91a&amp;c_uniq_tag=UqeZksZ31x65nMQM3_RYVwMbkfXOxjQ6KBLubgNNQd4&amp;type=album'}, {'height': 371, 'type': 'q', 'width': 320, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=320x371&amp;quality=95&amp;sign=752bc01d316120b4a4ebef19bbb0df4c&amp;c_uniq_tag=yScDWtI0dcBYPK3qwvH7Frdb42dfqCtiJNAifCDlBTA&amp;type=album'}, {'height': 591, 'type': 'r', 'width': 510, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=510x591&amp;quality=95&amp;sign=0aeed757cae161429e40081314bde190&amp;c_uniq_tag=c3lRWixdUGXmsJzM0gTFlnLOlKFxoeruO83aV0OG__E&amp;type=album'}]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>{'count': 0, 'user_likes': 0}</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>{'count': 0}</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>{'count': 0}</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>{'count': 0}</t>
         </is>

--- a/photos_to_save.xlsx
+++ b/photos_to_save.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[{'height': 72, 'type': 'm', 'width': 130, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=130x72&amp;quality=96&amp;sign=c84949ae63696355d76dc23e848bb385&amp;c_uniq_tag=QOr9KARW5D7r2CH9-VN5O8xbBVdRWSWM5AzVTEUzgZs&amp;type=album'}, {'height': 87, 'type': 'o', 'width': 130, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=130x87&amp;quality=96&amp;crop=35,0,354,237&amp;sign=1c6bc543c4e9076de6f3576c29d351df&amp;c_uniq_tag=DA8jsBL1GYy8EVRUQP0ACZGdLIZCM3gzplwJiAB2YHE&amp;type=album'}, {'height': 133, 'type': 'p', 'width': 200, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=200x133&amp;quality=96&amp;crop=34,0,356,237&amp;sign=ce0833673c0c7e3745cc8c4c96fbbb05&amp;c_uniq_tag=4qYBNECQO1MPntpZWMXRTf2TfgLTvnREM5YYxFBILUs&amp;type=album'}, {'height': 213, 'type': 'q', 'width': 320, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=320x213&amp;quality=96&amp;crop=34,0,356,237&amp;sign=5a0eff4ed8b654e29dbf7a24ab04d99c&amp;c_uniq_tag=IxAM0qCI7miir9Swjq8wPNWmGTEMGXD_TEp13_q5oJc&amp;type=album'}, {'height': 237, 'type': 'r', 'width': 425, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=425x237&amp;quality=96&amp;sign=8b341f05c8a5cf6ccea8d1b6fad298c3&amp;c_uniq_tag=XGZXBEF_lHOI-jN1YPRuOExzRi1D9BRs9pRar7oVc8U&amp;type=album'}, {'height': 42, 'type': 's', 'width': 75, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=75x42&amp;quality=96&amp;sign=2f56e2b27cde273a07dc0b89d44d328e&amp;c_uniq_tag=2eLosGiatbQapxr5PlkwdTscCR8SKlHR7JAowK8NzrQ&amp;type=album'}, {'height': 237, 'type': 'x', 'width': 425, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=425x237&amp;quality=96&amp;sign=8b341f05c8a5cf6ccea8d1b6fad298c3&amp;c_uniq_tag=XGZXBEF_lHOI-jN1YPRuOExzRi1D9BRs9pRar7oVc8U&amp;type=album'}]</t>
+          <t>[{'height': 72, 'type': 'm', 'width': 130, 'url': 'https://sun6-20.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=130x72&amp;quality=96&amp;sign=c84949ae63696355d76dc23e848bb385&amp;c_uniq_tag=QOr9KARW5D7r2CH9-VN5O8xbBVdRWSWM5AzVTEUzgZs&amp;type=album'}, {'height': 87, 'type': 'o', 'width': 130, 'url': 'https://sun6-20.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=130x87&amp;quality=96&amp;crop=35,0,354,237&amp;sign=1c6bc543c4e9076de6f3576c29d351df&amp;c_uniq_tag=DA8jsBL1GYy8EVRUQP0ACZGdLIZCM3gzplwJiAB2YHE&amp;type=album'}, {'height': 133, 'type': 'p', 'width': 200, 'url': 'https://sun6-20.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=200x133&amp;quality=96&amp;crop=34,0,356,237&amp;sign=ce0833673c0c7e3745cc8c4c96fbbb05&amp;c_uniq_tag=4qYBNECQO1MPntpZWMXRTf2TfgLTvnREM5YYxFBILUs&amp;type=album'}, {'height': 213, 'type': 'q', 'width': 320, 'url': 'https://sun6-20.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=320x213&amp;quality=96&amp;crop=34,0,356,237&amp;sign=5a0eff4ed8b654e29dbf7a24ab04d99c&amp;c_uniq_tag=IxAM0qCI7miir9Swjq8wPNWmGTEMGXD_TEp13_q5oJc&amp;type=album'}, {'height': 237, 'type': 'r', 'width': 425, 'url': 'https://sun6-20.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=425x237&amp;quality=96&amp;sign=8b341f05c8a5cf6ccea8d1b6fad298c3&amp;c_uniq_tag=XGZXBEF_lHOI-jN1YPRuOExzRi1D9BRs9pRar7oVc8U&amp;type=album'}, {'height': 42, 'type': 's', 'width': 75, 'url': 'https://sun6-20.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=75x42&amp;quality=96&amp;sign=2f56e2b27cde273a07dc0b89d44d328e&amp;c_uniq_tag=2eLosGiatbQapxr5PlkwdTscCR8SKlHR7JAowK8NzrQ&amp;type=album'}, {'height': 237, 'type': 'x', 'width': 425, 'url': 'https://sun6-20.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=425x237&amp;quality=96&amp;sign=8b341f05c8a5cf6ccea8d1b6fad298c3&amp;c_uniq_tag=XGZXBEF_lHOI-jN1YPRuOExzRi1D9BRs9pRar7oVc8U&amp;type=album'}]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>

--- a/photos_to_save.xlsx
+++ b/photos_to_save.xlsx
@@ -651,7 +651,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[{'height': 75, 'type': 's', 'width': 72, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=72x75&amp;quality=95&amp;sign=ceadc6d93b394bd647d90a5417220fb7&amp;c_uniq_tag=-kCQ6BPt_tR8t7hXkMCCiHCjlay1oUD5l2o7cj5nCOA&amp;type=album'}, {'height': 130, 'type': 'm', 'width': 125, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=125x130&amp;quality=95&amp;sign=0c6e99634a50e17d9d397d6bd108a43e&amp;c_uniq_tag=Tw6-BjHxmToJ6E7w19MorkPonW0s5TgkgMidC4Hu5ZI&amp;type=album'}, {'height': 570, 'type': 'x', 'width': 548, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=548x570&amp;quality=95&amp;sign=9beb4b83c4bf56cd15e694da8dbe68a3&amp;c_uniq_tag=PeNLgrvRr3ik5WWJp7TdbPEkbBL9tsok_vbZ2PgbmgI&amp;type=album'}, {'height': 135, 'type': 'o', 'width': 130, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=130x135&amp;quality=95&amp;sign=bed5f01625b9acf1e809b8bf504a1568&amp;c_uniq_tag=NMPRKa_OZ1mMNu0PxfHhZeWvtndY_2v0ZRG1MoKJJ1s&amp;type=album'}, {'height': 208, 'type': 'p', 'width': 200, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=200x208&amp;quality=95&amp;sign=3ed6eff7be0a99403e1d881187404df3&amp;c_uniq_tag=TWWbNyJJveKoteJPj6juhvXmu94FarlhZxujw_bBGag&amp;type=album'}, {'height': 333, 'type': 'q', 'width': 320, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=320x333&amp;quality=95&amp;sign=44428fcbcb93aeba97a3845c001f4691&amp;c_uniq_tag=87pTBzsOmbPERGmw9mAw1Exg__tagnoctYl-dvRKjY4&amp;type=album'}, {'height': 530, 'type': 'r', 'width': 510, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=510x530&amp;quality=95&amp;sign=595ac79f507ef1450befd78e51e326e4&amp;c_uniq_tag=cB_FgSo5fgznzpL8J9EWIWReBR0jvr_iIrvVF86hXdA&amp;type=album'}]</t>
+          <t>[{'height': 75, 'type': 's', 'width': 72, 'url': 'https://sun6-22.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=72x75&amp;quality=95&amp;sign=ceadc6d93b394bd647d90a5417220fb7&amp;c_uniq_tag=-kCQ6BPt_tR8t7hXkMCCiHCjlay1oUD5l2o7cj5nCOA&amp;type=album'}, {'height': 130, 'type': 'm', 'width': 125, 'url': 'https://sun6-22.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=125x130&amp;quality=95&amp;sign=0c6e99634a50e17d9d397d6bd108a43e&amp;c_uniq_tag=Tw6-BjHxmToJ6E7w19MorkPonW0s5TgkgMidC4Hu5ZI&amp;type=album'}, {'height': 570, 'type': 'x', 'width': 548, 'url': 'https://sun6-22.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=548x570&amp;quality=95&amp;sign=9beb4b83c4bf56cd15e694da8dbe68a3&amp;c_uniq_tag=PeNLgrvRr3ik5WWJp7TdbPEkbBL9tsok_vbZ2PgbmgI&amp;type=album'}, {'height': 135, 'type': 'o', 'width': 130, 'url': 'https://sun6-22.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=130x135&amp;quality=95&amp;sign=bed5f01625b9acf1e809b8bf504a1568&amp;c_uniq_tag=NMPRKa_OZ1mMNu0PxfHhZeWvtndY_2v0ZRG1MoKJJ1s&amp;type=album'}, {'height': 208, 'type': 'p', 'width': 200, 'url': 'https://sun6-22.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=200x208&amp;quality=95&amp;sign=3ed6eff7be0a99403e1d881187404df3&amp;c_uniq_tag=TWWbNyJJveKoteJPj6juhvXmu94FarlhZxujw_bBGag&amp;type=album'}, {'height': 333, 'type': 'q', 'width': 320, 'url': 'https://sun6-22.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=320x333&amp;quality=95&amp;sign=44428fcbcb93aeba97a3845c001f4691&amp;c_uniq_tag=87pTBzsOmbPERGmw9mAw1Exg__tagnoctYl-dvRKjY4&amp;type=album'}, {'height': 530, 'type': 'r', 'width': 510, 'url': 'https://sun6-22.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=510x530&amp;quality=95&amp;sign=595ac79f507ef1450befd78e51e326e4&amp;c_uniq_tag=cB_FgSo5fgznzpL8J9EWIWReBR0jvr_iIrvVF86hXdA&amp;type=album'}]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>

--- a/photos_to_save.xlsx
+++ b/photos_to_save.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[{'height': 72, 'type': 'm', 'width': 130, 'url': 'https://sun6-20.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=130x72&amp;quality=96&amp;sign=c84949ae63696355d76dc23e848bb385&amp;c_uniq_tag=QOr9KARW5D7r2CH9-VN5O8xbBVdRWSWM5AzVTEUzgZs&amp;type=album'}, {'height': 87, 'type': 'o', 'width': 130, 'url': 'https://sun6-20.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=130x87&amp;quality=96&amp;crop=35,0,354,237&amp;sign=1c6bc543c4e9076de6f3576c29d351df&amp;c_uniq_tag=DA8jsBL1GYy8EVRUQP0ACZGdLIZCM3gzplwJiAB2YHE&amp;type=album'}, {'height': 133, 'type': 'p', 'width': 200, 'url': 'https://sun6-20.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=200x133&amp;quality=96&amp;crop=34,0,356,237&amp;sign=ce0833673c0c7e3745cc8c4c96fbbb05&amp;c_uniq_tag=4qYBNECQO1MPntpZWMXRTf2TfgLTvnREM5YYxFBILUs&amp;type=album'}, {'height': 213, 'type': 'q', 'width': 320, 'url': 'https://sun6-20.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=320x213&amp;quality=96&amp;crop=34,0,356,237&amp;sign=5a0eff4ed8b654e29dbf7a24ab04d99c&amp;c_uniq_tag=IxAM0qCI7miir9Swjq8wPNWmGTEMGXD_TEp13_q5oJc&amp;type=album'}, {'height': 237, 'type': 'r', 'width': 425, 'url': 'https://sun6-20.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=425x237&amp;quality=96&amp;sign=8b341f05c8a5cf6ccea8d1b6fad298c3&amp;c_uniq_tag=XGZXBEF_lHOI-jN1YPRuOExzRi1D9BRs9pRar7oVc8U&amp;type=album'}, {'height': 42, 'type': 's', 'width': 75, 'url': 'https://sun6-20.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=75x42&amp;quality=96&amp;sign=2f56e2b27cde273a07dc0b89d44d328e&amp;c_uniq_tag=2eLosGiatbQapxr5PlkwdTscCR8SKlHR7JAowK8NzrQ&amp;type=album'}, {'height': 237, 'type': 'x', 'width': 425, 'url': 'https://sun6-20.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=425x237&amp;quality=96&amp;sign=8b341f05c8a5cf6ccea8d1b6fad298c3&amp;c_uniq_tag=XGZXBEF_lHOI-jN1YPRuOExzRi1D9BRs9pRar7oVc8U&amp;type=album'}]</t>
+          <t>[{'height': 72, 'type': 'm', 'width': 130, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=130x72&amp;quality=96&amp;sign=c84949ae63696355d76dc23e848bb385&amp;c_uniq_tag=QOr9KARW5D7r2CH9-VN5O8xbBVdRWSWM5AzVTEUzgZs&amp;type=album'}, {'height': 87, 'type': 'o', 'width': 130, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=130x87&amp;quality=96&amp;crop=35,0,354,237&amp;sign=1c6bc543c4e9076de6f3576c29d351df&amp;c_uniq_tag=DA8jsBL1GYy8EVRUQP0ACZGdLIZCM3gzplwJiAB2YHE&amp;type=album'}, {'height': 133, 'type': 'p', 'width': 200, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=200x133&amp;quality=96&amp;crop=34,0,356,237&amp;sign=ce0833673c0c7e3745cc8c4c96fbbb05&amp;c_uniq_tag=4qYBNECQO1MPntpZWMXRTf2TfgLTvnREM5YYxFBILUs&amp;type=album'}, {'height': 213, 'type': 'q', 'width': 320, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=320x213&amp;quality=96&amp;crop=34,0,356,237&amp;sign=5a0eff4ed8b654e29dbf7a24ab04d99c&amp;c_uniq_tag=IxAM0qCI7miir9Swjq8wPNWmGTEMGXD_TEp13_q5oJc&amp;type=album'}, {'height': 237, 'type': 'r', 'width': 425, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=425x237&amp;quality=96&amp;sign=8b341f05c8a5cf6ccea8d1b6fad298c3&amp;c_uniq_tag=XGZXBEF_lHOI-jN1YPRuOExzRi1D9BRs9pRar7oVc8U&amp;type=album'}, {'height': 42, 'type': 's', 'width': 75, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=75x42&amp;quality=96&amp;sign=2f56e2b27cde273a07dc0b89d44d328e&amp;c_uniq_tag=2eLosGiatbQapxr5PlkwdTscCR8SKlHR7JAowK8NzrQ&amp;type=album'}, {'height': 237, 'type': 'x', 'width': 425, 'url': 'https://sun9-80.userapi.com/impf/Zod66xVvQ4LUlX9ifyGHz1o28F_XKBU-wERiCg/Ak_4vFJhIao.jpg?size=425x237&amp;quality=96&amp;sign=8b341f05c8a5cf6ccea8d1b6fad298c3&amp;c_uniq_tag=XGZXBEF_lHOI-jN1YPRuOExzRi1D9BRs9pRar7oVc8U&amp;type=album'}]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -697,7 +697,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[{'height': 75, 'type': 's', 'width': 65, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=65x75&amp;quality=95&amp;sign=8c1c7cbc9279728e86dac499b84d7178&amp;c_uniq_tag=himzbnkelzKUGdwFpGaphg61TVbef6UvKad41ohRF6w&amp;type=album'}, {'height': 130, 'type': 'm', 'width': 112, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=112x130&amp;quality=95&amp;sign=8bccc2efc9599fe91f37e2a93cac999b&amp;c_uniq_tag=WLmHViOkEn8klhI1k4jloOi7PJBVPeSba-8MN9HZKb0&amp;type=album'}, {'height': 604, 'type': 'x', 'width': 521, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=521x604&amp;quality=95&amp;sign=ba6910ef5ada5cba81f8bae534581e00&amp;c_uniq_tag=3hHlAyyUO-S7DpGBWcWVh9QsnZBD-MHxyWVtdnroifs&amp;type=album'}, {'height': 636, 'type': 'y', 'width': 549, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=549x636&amp;quality=95&amp;sign=c57b4756ac220f634b39f8c55718ad79&amp;c_uniq_tag=FaL4LW3Mg-HSlQi2c9Ne2DwMLGUDTbFGANrry8JcGyA&amp;type=album'}, {'height': 151, 'type': 'o', 'width': 130, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=130x151&amp;quality=95&amp;sign=528d7555b4295e6e9136e205a05e0fd3&amp;c_uniq_tag=NXd1aXNsh_f8S4L-18gSKEKJJVdkpTAC3957pQA-w5A&amp;type=album'}, {'height': 232, 'type': 'p', 'width': 200, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=200x232&amp;quality=95&amp;sign=0f2594ecc1406025e42b3115afc8d91a&amp;c_uniq_tag=UqeZksZ31x65nMQM3_RYVwMbkfXOxjQ6KBLubgNNQd4&amp;type=album'}, {'height': 371, 'type': 'q', 'width': 320, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=320x371&amp;quality=95&amp;sign=752bc01d316120b4a4ebef19bbb0df4c&amp;c_uniq_tag=yScDWtI0dcBYPK3qwvH7Frdb42dfqCtiJNAifCDlBTA&amp;type=album'}, {'height': 591, 'type': 'r', 'width': 510, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=510x591&amp;quality=95&amp;sign=0aeed757cae161429e40081314bde190&amp;c_uniq_tag=c3lRWixdUGXmsJzM0gTFlnLOlKFxoeruO83aV0OG__E&amp;type=album'}]</t>
+          <t>[{'height': 75, 'type': 's', 'width': 65, 'url': 'https://sun6-23.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=65x75&amp;quality=95&amp;sign=8c1c7cbc9279728e86dac499b84d7178&amp;c_uniq_tag=himzbnkelzKUGdwFpGaphg61TVbef6UvKad41ohRF6w&amp;type=album'}, {'height': 130, 'type': 'm', 'width': 112, 'url': 'https://sun6-23.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=112x130&amp;quality=95&amp;sign=8bccc2efc9599fe91f37e2a93cac999b&amp;c_uniq_tag=WLmHViOkEn8klhI1k4jloOi7PJBVPeSba-8MN9HZKb0&amp;type=album'}, {'height': 604, 'type': 'x', 'width': 521, 'url': 'https://sun6-23.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=521x604&amp;quality=95&amp;sign=ba6910ef5ada5cba81f8bae534581e00&amp;c_uniq_tag=3hHlAyyUO-S7DpGBWcWVh9QsnZBD-MHxyWVtdnroifs&amp;type=album'}, {'height': 636, 'type': 'y', 'width': 549, 'url': 'https://sun6-23.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=549x636&amp;quality=95&amp;sign=c57b4756ac220f634b39f8c55718ad79&amp;c_uniq_tag=FaL4LW3Mg-HSlQi2c9Ne2DwMLGUDTbFGANrry8JcGyA&amp;type=album'}, {'height': 151, 'type': 'o', 'width': 130, 'url': 'https://sun6-23.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=130x151&amp;quality=95&amp;sign=528d7555b4295e6e9136e205a05e0fd3&amp;c_uniq_tag=NXd1aXNsh_f8S4L-18gSKEKJJVdkpTAC3957pQA-w5A&amp;type=album'}, {'height': 232, 'type': 'p', 'width': 200, 'url': 'https://sun6-23.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=200x232&amp;quality=95&amp;sign=0f2594ecc1406025e42b3115afc8d91a&amp;c_uniq_tag=UqeZksZ31x65nMQM3_RYVwMbkfXOxjQ6KBLubgNNQd4&amp;type=album'}, {'height': 371, 'type': 'q', 'width': 320, 'url': 'https://sun6-23.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=320x371&amp;quality=95&amp;sign=752bc01d316120b4a4ebef19bbb0df4c&amp;c_uniq_tag=yScDWtI0dcBYPK3qwvH7Frdb42dfqCtiJNAifCDlBTA&amp;type=album'}, {'height': 591, 'type': 'r', 'width': 510, 'url': 'https://sun6-23.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=510x591&amp;quality=95&amp;sign=0aeed757cae161429e40081314bde190&amp;c_uniq_tag=c3lRWixdUGXmsJzM0gTFlnLOlKFxoeruO83aV0OG__E&amp;type=album'}]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>

--- a/photos_to_save.xlsx
+++ b/photos_to_save.xlsx
@@ -651,7 +651,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[{'height': 75, 'type': 's', 'width': 72, 'url': 'https://sun6-22.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=72x75&amp;quality=95&amp;sign=ceadc6d93b394bd647d90a5417220fb7&amp;c_uniq_tag=-kCQ6BPt_tR8t7hXkMCCiHCjlay1oUD5l2o7cj5nCOA&amp;type=album'}, {'height': 130, 'type': 'm', 'width': 125, 'url': 'https://sun6-22.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=125x130&amp;quality=95&amp;sign=0c6e99634a50e17d9d397d6bd108a43e&amp;c_uniq_tag=Tw6-BjHxmToJ6E7w19MorkPonW0s5TgkgMidC4Hu5ZI&amp;type=album'}, {'height': 570, 'type': 'x', 'width': 548, 'url': 'https://sun6-22.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=548x570&amp;quality=95&amp;sign=9beb4b83c4bf56cd15e694da8dbe68a3&amp;c_uniq_tag=PeNLgrvRr3ik5WWJp7TdbPEkbBL9tsok_vbZ2PgbmgI&amp;type=album'}, {'height': 135, 'type': 'o', 'width': 130, 'url': 'https://sun6-22.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=130x135&amp;quality=95&amp;sign=bed5f01625b9acf1e809b8bf504a1568&amp;c_uniq_tag=NMPRKa_OZ1mMNu0PxfHhZeWvtndY_2v0ZRG1MoKJJ1s&amp;type=album'}, {'height': 208, 'type': 'p', 'width': 200, 'url': 'https://sun6-22.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=200x208&amp;quality=95&amp;sign=3ed6eff7be0a99403e1d881187404df3&amp;c_uniq_tag=TWWbNyJJveKoteJPj6juhvXmu94FarlhZxujw_bBGag&amp;type=album'}, {'height': 333, 'type': 'q', 'width': 320, 'url': 'https://sun6-22.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=320x333&amp;quality=95&amp;sign=44428fcbcb93aeba97a3845c001f4691&amp;c_uniq_tag=87pTBzsOmbPERGmw9mAw1Exg__tagnoctYl-dvRKjY4&amp;type=album'}, {'height': 530, 'type': 'r', 'width': 510, 'url': 'https://sun6-22.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=510x530&amp;quality=95&amp;sign=595ac79f507ef1450befd78e51e326e4&amp;c_uniq_tag=cB_FgSo5fgznzpL8J9EWIWReBR0jvr_iIrvVF86hXdA&amp;type=album'}]</t>
+          <t>[{'height': 75, 'type': 's', 'width': 72, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=72x75&amp;quality=95&amp;sign=ceadc6d93b394bd647d90a5417220fb7&amp;c_uniq_tag=-kCQ6BPt_tR8t7hXkMCCiHCjlay1oUD5l2o7cj5nCOA&amp;type=album'}, {'height': 130, 'type': 'm', 'width': 125, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=125x130&amp;quality=95&amp;sign=0c6e99634a50e17d9d397d6bd108a43e&amp;c_uniq_tag=Tw6-BjHxmToJ6E7w19MorkPonW0s5TgkgMidC4Hu5ZI&amp;type=album'}, {'height': 570, 'type': 'x', 'width': 548, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=548x570&amp;quality=95&amp;sign=9beb4b83c4bf56cd15e694da8dbe68a3&amp;c_uniq_tag=PeNLgrvRr3ik5WWJp7TdbPEkbBL9tsok_vbZ2PgbmgI&amp;type=album'}, {'height': 135, 'type': 'o', 'width': 130, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=130x135&amp;quality=95&amp;sign=bed5f01625b9acf1e809b8bf504a1568&amp;c_uniq_tag=NMPRKa_OZ1mMNu0PxfHhZeWvtndY_2v0ZRG1MoKJJ1s&amp;type=album'}, {'height': 208, 'type': 'p', 'width': 200, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=200x208&amp;quality=95&amp;sign=3ed6eff7be0a99403e1d881187404df3&amp;c_uniq_tag=TWWbNyJJveKoteJPj6juhvXmu94FarlhZxujw_bBGag&amp;type=album'}, {'height': 333, 'type': 'q', 'width': 320, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=320x333&amp;quality=95&amp;sign=44428fcbcb93aeba97a3845c001f4691&amp;c_uniq_tag=87pTBzsOmbPERGmw9mAw1Exg__tagnoctYl-dvRKjY4&amp;type=album'}, {'height': 530, 'type': 'r', 'width': 510, 'url': 'https://sun9-1.userapi.com/impg/R1GvQjpNBIemCtctu5z8wUEN3S3Rzs4ejo1iZA/ws9L6oc7-SI.jpg?size=510x530&amp;quality=95&amp;sign=595ac79f507ef1450befd78e51e326e4&amp;c_uniq_tag=cB_FgSo5fgznzpL8J9EWIWReBR0jvr_iIrvVF86hXdA&amp;type=album'}]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -697,7 +697,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[{'height': 75, 'type': 's', 'width': 65, 'url': 'https://sun6-23.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=65x75&amp;quality=95&amp;sign=8c1c7cbc9279728e86dac499b84d7178&amp;c_uniq_tag=himzbnkelzKUGdwFpGaphg61TVbef6UvKad41ohRF6w&amp;type=album'}, {'height': 130, 'type': 'm', 'width': 112, 'url': 'https://sun6-23.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=112x130&amp;quality=95&amp;sign=8bccc2efc9599fe91f37e2a93cac999b&amp;c_uniq_tag=WLmHViOkEn8klhI1k4jloOi7PJBVPeSba-8MN9HZKb0&amp;type=album'}, {'height': 604, 'type': 'x', 'width': 521, 'url': 'https://sun6-23.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=521x604&amp;quality=95&amp;sign=ba6910ef5ada5cba81f8bae534581e00&amp;c_uniq_tag=3hHlAyyUO-S7DpGBWcWVh9QsnZBD-MHxyWVtdnroifs&amp;type=album'}, {'height': 636, 'type': 'y', 'width': 549, 'url': 'https://sun6-23.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=549x636&amp;quality=95&amp;sign=c57b4756ac220f634b39f8c55718ad79&amp;c_uniq_tag=FaL4LW3Mg-HSlQi2c9Ne2DwMLGUDTbFGANrry8JcGyA&amp;type=album'}, {'height': 151, 'type': 'o', 'width': 130, 'url': 'https://sun6-23.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=130x151&amp;quality=95&amp;sign=528d7555b4295e6e9136e205a05e0fd3&amp;c_uniq_tag=NXd1aXNsh_f8S4L-18gSKEKJJVdkpTAC3957pQA-w5A&amp;type=album'}, {'height': 232, 'type': 'p', 'width': 200, 'url': 'https://sun6-23.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=200x232&amp;quality=95&amp;sign=0f2594ecc1406025e42b3115afc8d91a&amp;c_uniq_tag=UqeZksZ31x65nMQM3_RYVwMbkfXOxjQ6KBLubgNNQd4&amp;type=album'}, {'height': 371, 'type': 'q', 'width': 320, 'url': 'https://sun6-23.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=320x371&amp;quality=95&amp;sign=752bc01d316120b4a4ebef19bbb0df4c&amp;c_uniq_tag=yScDWtI0dcBYPK3qwvH7Frdb42dfqCtiJNAifCDlBTA&amp;type=album'}, {'height': 591, 'type': 'r', 'width': 510, 'url': 'https://sun6-23.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=510x591&amp;quality=95&amp;sign=0aeed757cae161429e40081314bde190&amp;c_uniq_tag=c3lRWixdUGXmsJzM0gTFlnLOlKFxoeruO83aV0OG__E&amp;type=album'}]</t>
+          <t>[{'height': 75, 'type': 's', 'width': 65, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=65x75&amp;quality=95&amp;sign=8c1c7cbc9279728e86dac499b84d7178&amp;c_uniq_tag=himzbnkelzKUGdwFpGaphg61TVbef6UvKad41ohRF6w&amp;type=album'}, {'height': 130, 'type': 'm', 'width': 112, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=112x130&amp;quality=95&amp;sign=8bccc2efc9599fe91f37e2a93cac999b&amp;c_uniq_tag=WLmHViOkEn8klhI1k4jloOi7PJBVPeSba-8MN9HZKb0&amp;type=album'}, {'height': 604, 'type': 'x', 'width': 521, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=521x604&amp;quality=95&amp;sign=ba6910ef5ada5cba81f8bae534581e00&amp;c_uniq_tag=3hHlAyyUO-S7DpGBWcWVh9QsnZBD-MHxyWVtdnroifs&amp;type=album'}, {'height': 636, 'type': 'y', 'width': 549, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=549x636&amp;quality=95&amp;sign=c57b4756ac220f634b39f8c55718ad79&amp;c_uniq_tag=FaL4LW3Mg-HSlQi2c9Ne2DwMLGUDTbFGANrry8JcGyA&amp;type=album'}, {'height': 151, 'type': 'o', 'width': 130, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=130x151&amp;quality=95&amp;sign=528d7555b4295e6e9136e205a05e0fd3&amp;c_uniq_tag=NXd1aXNsh_f8S4L-18gSKEKJJVdkpTAC3957pQA-w5A&amp;type=album'}, {'height': 232, 'type': 'p', 'width': 200, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=200x232&amp;quality=95&amp;sign=0f2594ecc1406025e42b3115afc8d91a&amp;c_uniq_tag=UqeZksZ31x65nMQM3_RYVwMbkfXOxjQ6KBLubgNNQd4&amp;type=album'}, {'height': 371, 'type': 'q', 'width': 320, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=320x371&amp;quality=95&amp;sign=752bc01d316120b4a4ebef19bbb0df4c&amp;c_uniq_tag=yScDWtI0dcBYPK3qwvH7Frdb42dfqCtiJNAifCDlBTA&amp;type=album'}, {'height': 591, 'type': 'r', 'width': 510, 'url': 'https://sun9-70.userapi.com/impg/4oEP1lzqDnKlVeAIpMuf-_drZY7qqK7negceug/EIJPzAzRttI.jpg?size=510x591&amp;quality=95&amp;sign=0aeed757cae161429e40081314bde190&amp;c_uniq_tag=c3lRWixdUGXmsJzM0gTFlnLOlKFxoeruO83aV0OG__E&amp;type=album'}]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>

--- a/photos_to_save.xlsx
+++ b/photos_to_save.xlsx
@@ -559,7 +559,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[{'height': 72, 'type': 'm', 'width': 130, 'url': 'https://sun6-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=130x72&amp;quality=96&amp;sign=978a0fd1e7b40fc893c2c496416368a2&amp;c_uniq_tag=zOpNgDtGLEtoplFgksOuP2_GBP171ue0YAzshaJdo5E&amp;type=album'}, {'height': 87, 'type': 'o', 'width': 130, 'url': 'https://sun6-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=130x87&amp;quality=96&amp;crop=35,0,354,237&amp;sign=7ea20a06e37b1dd4619006224142c7d3&amp;c_uniq_tag=7f0ZakCj1tlmnTMtawvjOEk4hRf19TA4VbMZPtl8OLA&amp;type=album'}, {'height': 133, 'type': 'p', 'width': 200, 'url': 'https://sun6-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=200x133&amp;quality=96&amp;crop=34,0,356,237&amp;sign=8a7a5283c6ddbc1229b327f7386bf7f2&amp;c_uniq_tag=wIzPNRQZHaWub2FWLOKI1KdCXOw9eq2LbYLC5A9Vvl8&amp;type=album'}, {'height': 213, 'type': 'q', 'width': 320, 'url': 'https://sun6-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=320x213&amp;quality=96&amp;crop=34,0,356,237&amp;sign=27d3671661ab5f1b42f7234c593e6efe&amp;c_uniq_tag=2-OfGh3UgI4kmuNiSxd-MnWOmGmdIb11_QaOv5Ld8O8&amp;type=album'}, {'height': 237, 'type': 'r', 'width': 425, 'url': 'https://sun6-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=425x237&amp;quality=96&amp;sign=c7ea5f719f2ad1bbebd03b4c09cb3b74&amp;c_uniq_tag=1q-FXm675FQHC8bgGEEhgonN_0UMsuMookqhsZZou4U&amp;type=album'}, {'height': 42, 'type': 's', 'width': 75, 'url': 'https://sun6-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=75x42&amp;quality=96&amp;sign=2c672725e67005bf85306faa2932913e&amp;c_uniq_tag=wIbrH2W5Wb-P3AE13unjtsbDYm_cdPqrRAY_o--cNkI&amp;type=album'}, {'height': 237, 'type': 'x', 'width': 425, 'url': 'https://sun6-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=425x237&amp;quality=96&amp;sign=c7ea5f719f2ad1bbebd03b4c09cb3b74&amp;c_uniq_tag=1q-FXm675FQHC8bgGEEhgonN_0UMsuMookqhsZZou4U&amp;type=album'}]</t>
+          <t>[{'height': 72, 'type': 'm', 'width': 130, 'url': 'https://sun9-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=130x72&amp;quality=96&amp;sign=978a0fd1e7b40fc893c2c496416368a2&amp;c_uniq_tag=zOpNgDtGLEtoplFgksOuP2_GBP171ue0YAzshaJdo5E&amp;type=album'}, {'height': 87, 'type': 'o', 'width': 130, 'url': 'https://sun9-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=130x87&amp;quality=96&amp;crop=35,0,354,237&amp;sign=7ea20a06e37b1dd4619006224142c7d3&amp;c_uniq_tag=7f0ZakCj1tlmnTMtawvjOEk4hRf19TA4VbMZPtl8OLA&amp;type=album'}, {'height': 133, 'type': 'p', 'width': 200, 'url': 'https://sun9-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=200x133&amp;quality=96&amp;crop=34,0,356,237&amp;sign=8a7a5283c6ddbc1229b327f7386bf7f2&amp;c_uniq_tag=wIzPNRQZHaWub2FWLOKI1KdCXOw9eq2LbYLC5A9Vvl8&amp;type=album'}, {'height': 213, 'type': 'q', 'width': 320, 'url': 'https://sun9-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=320x213&amp;quality=96&amp;crop=34,0,356,237&amp;sign=27d3671661ab5f1b42f7234c593e6efe&amp;c_uniq_tag=2-OfGh3UgI4kmuNiSxd-MnWOmGmdIb11_QaOv5Ld8O8&amp;type=album'}, {'height': 237, 'type': 'r', 'width': 425, 'url': 'https://sun9-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=425x237&amp;quality=96&amp;sign=c7ea5f719f2ad1bbebd03b4c09cb3b74&amp;c_uniq_tag=1q-FXm675FQHC8bgGEEhgonN_0UMsuMookqhsZZou4U&amp;type=album'}, {'height': 42, 'type': 's', 'width': 75, 'url': 'https://sun9-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=75x42&amp;quality=96&amp;sign=2c672725e67005bf85306faa2932913e&amp;c_uniq_tag=wIbrH2W5Wb-P3AE13unjtsbDYm_cdPqrRAY_o--cNkI&amp;type=album'}, {'height': 237, 'type': 'x', 'width': 425, 'url': 'https://sun9-21.userapi.com/impf/rVvupupMARwYPisPvjpqiRjy_Jedy5QkgOo9qQ/-SlMTPlXr-k.jpg?size=425x237&amp;quality=96&amp;sign=c7ea5f719f2ad1bbebd03b4c09cb3b74&amp;c_uniq_tag=1q-FXm675FQHC8bgGEEhgonN_0UMsuMookqhsZZou4U&amp;type=album'}]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -605,7 +605,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[{'height': 107, 'type': 'm', 'width': 130, 'url': 'https://sun6-23.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=130x107&amp;quality=96&amp;sign=6d40a77f971cf2c3724afdec8f12af19&amp;c_uniq_tag=7OEGfOssYHrQE4JK152VQHMMGE-1Xc8BkcD_mGeLIuA&amp;type=album'}, {'height': 107, 'type': 'o', 'width': 130, 'url': 'https://sun6-23.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=130x107&amp;quality=96&amp;sign=6d40a77f971cf2c3724afdec8f12af19&amp;c_uniq_tag=7OEGfOssYHrQE4JK152VQHMMGE-1Xc8BkcD_mGeLIuA&amp;type=album'}, {'height': 164, 'type': 'p', 'width': 200, 'url': 'https://sun6-23.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=200x164&amp;quality=96&amp;sign=ab446b6f06c4d2d46f4c1b7cd8ab5261&amp;c_uniq_tag=g7hNVGcS0liJNF5ht2vkmz8Oocux4CEF5rHiydD5EVA&amp;type=album'}, {'height': 263, 'type': 'q', 'width': 320, 'url': 'https://sun6-23.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=320x263&amp;quality=96&amp;sign=ee749c85514e7c9825a88a633b210b0d&amp;c_uniq_tag=VgJlmaNJ6129arzBRJhM2r4JJagg_j4fn5UtlXHyL5s&amp;type=album'}, {'height': 419, 'type': 'r', 'width': 510, 'url': 'https://sun6-23.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=510x419&amp;quality=96&amp;sign=34fc1dbd0260b7169a122b7fb2b79cf8&amp;c_uniq_tag=2njAdomZz4FKRur0BHgZmegZcDsTvFWMTa43IybIIwc&amp;type=album'}, {'height': 62, 'type': 's', 'width': 75, 'url': 'https://sun6-23.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=75x62&amp;quality=96&amp;sign=761c91142d1a23da8eb37b152cebc1dc&amp;c_uniq_tag=0oNbBbDW8gNroh8Dqg0h0fxd3dOfDlF6HJbvZQiJ8AI&amp;type=album'}, {'height': 458, 'type': 'x', 'width': 558, 'url': 'https://sun6-23.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=558x458&amp;quality=96&amp;sign=adabb4dd464586c3fed2957414b9b241&amp;c_uniq_tag=mnU8nhpZ7Mm1aqPQEcv3IsBq6Ftn0t8wsO_7wW1WIoM&amp;type=album'}]</t>
+          <t>[{'height': 107, 'type': 'm', 'width': 130, 'url': 'https://sun9-41.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=130x107&amp;quality=96&amp;sign=6d40a77f971cf2c3724afdec8f12af19&amp;c_uniq_tag=7OEGfOssYHrQE4JK152VQHMMGE-1Xc8BkcD_mGeLIuA&amp;type=album'}, {'height': 107, 'type': 'o', 'width': 130, 'url': 'https://sun9-41.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=130x107&amp;quality=96&amp;sign=6d40a77f971cf2c3724afdec8f12af19&amp;c_uniq_tag=7OEGfOssYHrQE4JK152VQHMMGE-1Xc8BkcD_mGeLIuA&amp;type=album'}, {'height': 164, 'type': 'p', 'width': 200, 'url': 'https://sun9-41.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=200x164&amp;quality=96&amp;sign=ab446b6f06c4d2d46f4c1b7cd8ab5261&amp;c_uniq_tag=g7hNVGcS0liJNF5ht2vkmz8Oocux4CEF5rHiydD5EVA&amp;type=album'}, {'height': 263, 'type': 'q', 'width': 320, 'url': 'https://sun9-41.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=320x263&amp;quality=96&amp;sign=ee749c85514e7c9825a88a633b210b0d&amp;c_uniq_tag=VgJlmaNJ6129arzBRJhM2r4JJagg_j4fn5UtlXHyL5s&amp;type=album'}, {'height': 419, 'type': 'r', 'width': 510, 'url': 'https://sun9-41.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=510x419&amp;quality=96&amp;sign=34fc1dbd0260b7169a122b7fb2b79cf8&amp;c_uniq_tag=2njAdomZz4FKRur0BHgZmegZcDsTvFWMTa43IybIIwc&amp;type=album'}, {'height': 62, 'type': 's', 'width': 75, 'url': 'https://sun9-41.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=75x62&amp;quality=96&amp;sign=761c91142d1a23da8eb37b152cebc1dc&amp;c_uniq_tag=0oNbBbDW8gNroh8Dqg0h0fxd3dOfDlF6HJbvZQiJ8AI&amp;type=album'}, {'height': 458, 'type': 'x', 'width': 558, 'url': 'https://sun9-41.userapi.com/impf/pXaQbeuh9ElsCBd93DGTPb4lSd1GybiInXXo2g/L8wErn2y2Hg.jpg?size=558x458&amp;quality=96&amp;sign=adabb4dd464586c3fed2957414b9b241&amp;c_uniq_tag=mnU8nhpZ7Mm1aqPQEcv3IsBq6Ftn0t8wsO_7wW1WIoM&amp;type=album'}]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
